--- a/266.国内文本关卡配置表@MapTranslationConfiguration.xlsx
+++ b/266.国内文本关卡配置表@MapTranslationConfiguration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Pokemon_MainLand\Tables\ResXlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MainLandClient\Tables\ResXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0221E12-C56B-4ECC-985C-B19F6767CB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC607349-D907-4535-8478-EB1A716DB6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapTranslationConfiguration" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MapTranslationConfiguration!$A$6:$E$464</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="2156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="2194">
   <si>
     <t>ID</t>
   </si>
@@ -7642,9 +7642,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Mainland_Map_BattleRoyale_Desert_007</t>
-  </si>
-  <si>
     <t>场景：双人淘汰赛-沙漠图-绿色队伍
 使用版本：上线版本
 负责人：siweiqiu_ex</t>
@@ -8101,6 +8098,174 @@
   <si>
     <t>&lt;color=#fffd40&gt;击打&lt;/color&gt;阿罗拉椰蛋树
 会掉落大量&lt;color=#fffd40&gt;亿能&lt;/color&gt;！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mainland_Map_BattleSignal_13_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景：局内玩家发送的和招式相关的信号
+使用版本：上线版本
+负责人：shawnhou</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式一等待时间{1}秒！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mainland_Map_BattleSignal_13_003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式二等待时间{1}秒！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式一已就绪！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式二已就绪！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mainland_Map_BattleSignal_14_003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mainland_Map_BattleSignal_14_004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mainland_Map_BattleRoyale_Desert_007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mainland_Map_BattleRoyale_Desert_012</t>
+  </si>
+  <si>
+    <t>Mainland_Map_BattleRoyale_Desert_013</t>
+  </si>
+  <si>
+    <t>Mainland_Map_BattleRoyale_Desert_014</t>
+  </si>
+  <si>
+    <t>Mainland_Map_BattleRoyale_Desert_015</t>
+  </si>
+  <si>
+    <t>场景：双人淘汰赛-沙漠图-范围隐身道具名称
+使用版本：上线版本
+负责人：siweiqiu_ex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景：双人淘汰赛-沙漠图-范围隐身道具描述
+使用版本：上线版本
+负责人：siweiqiu_ex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围隐身</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围强化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景：双人淘汰赛-沙漠图-范围强化道具名称
+使用版本：上线版本
+负责人：siweiqiu_ex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景：双人淘汰赛-沙漠图-范围强化道具描述
+使用版本：上线版本
+负责人：siweiqiu_ex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景：双人淘汰赛-沙漠图-范围恢复道具名称
+使用版本：上线版本
+负责人：siweiqiu_ex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围恢复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景：双人淘汰赛-沙漠图-范围恢复道具描述
+使用版本：上线版本
+负责人：siweiqiu_ex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景：双人淘汰赛-沙漠图-宝可尾草道具名称
+使用版本：上线版本
+负责人：siweiqiu_ex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝可尾草</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景：双人淘汰赛-沙漠图-宝可尾草道具描述
+使用版本：上线版本
+负责人：siweiqiu_ex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扔出一根宝可尾草，吸引流氓鳄前来</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放一个烟雾弹，使得自己和处在烟雾范围内的友方进入隐身状态。在烟雾弹内使用普通攻击或招式，会短暂现行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放一个强化区域，使得自己和处在强化范围内的友方提升伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放一个恢复区域，使得自己和处在恢复范围内的友方在一定时间内持续回复体力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mainland_Map_BattleRoyale_Desert_011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mainland_Map_BattleRoyale_Desert_010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mainland_Map_BattleRoyale_Desert_016</t>
+  </si>
+  <si>
+    <t>Mainland_Map_BattleRoyale_Desert_017</t>
+  </si>
+  <si>
+    <t>Map_PsyduckRun_newbietips_003</t>
+  </si>
+  <si>
+    <t>Map_PsyduckRun_newbietips_004</t>
+  </si>
+  <si>
+    <t>场景：可达鸭拉力赛关卡内提示
+使用版本：12月初上线
+负责人：bowensheng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操纵摇杆控制可达鸭前进方向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速改变摇杆可达鸭漂移过弯</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -8424,7 +8589,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8660,20 +8825,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8695,7 +8851,27 @@
     <cellStyle name="常规 4" xfId="2" xr:uid="{AD8BF564-7E47-4CC9-BAE1-8FDECCF1B5B5}"/>
     <cellStyle name="常规 4 2" xfId="3" xr:uid="{C13A91CF-DF4C-4EBB-8F18-1525E88A9347}"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="107">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10018,11 +10194,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E951"/>
+  <dimension ref="A1:E965"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A931" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F937" sqref="F937"/>
+      <pane ySplit="6" topLeftCell="A710" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B722" sqref="B722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -11787,7 +11963,7 @@
         <v>606</v>
       </c>
       <c r="D110" s="51" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="E110" s="25"/>
     </row>
@@ -11803,7 +11979,7 @@
         <v>606</v>
       </c>
       <c r="D111" s="51" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="E111" s="25"/>
     </row>
@@ -11819,7 +11995,7 @@
         <v>606</v>
       </c>
       <c r="D112" s="51" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="E112" s="25"/>
     </row>
@@ -11835,7 +12011,7 @@
         <v>606</v>
       </c>
       <c r="D113" s="51" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="E113" s="25"/>
     </row>
@@ -11915,7 +12091,7 @@
         <v>606</v>
       </c>
       <c r="D118" s="51" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E118" s="25"/>
     </row>
@@ -11931,7 +12107,7 @@
         <v>606</v>
       </c>
       <c r="D119" s="51" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E119" s="25"/>
     </row>
@@ -11947,7 +12123,7 @@
         <v>606</v>
       </c>
       <c r="D120" s="51" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E120" s="25"/>
     </row>
@@ -11963,7 +12139,7 @@
         <v>606</v>
       </c>
       <c r="D121" s="51" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E121" s="25"/>
     </row>
@@ -12363,7 +12539,7 @@
         <v>606</v>
       </c>
       <c r="D146" s="50" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="E146" s="25"/>
     </row>
@@ -12379,7 +12555,7 @@
         <v>606</v>
       </c>
       <c r="D147" s="50" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="E147" s="25"/>
     </row>
@@ -12395,7 +12571,7 @@
         <v>606</v>
       </c>
       <c r="D148" s="50" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E148" s="25"/>
     </row>
@@ -12411,7 +12587,7 @@
         <v>606</v>
       </c>
       <c r="D149" s="50" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="E149" s="25"/>
     </row>
@@ -12683,7 +12859,7 @@
         <v>606</v>
       </c>
       <c r="D166" s="50" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="E166" s="16"/>
     </row>
@@ -12699,7 +12875,7 @@
         <v>606</v>
       </c>
       <c r="D167" s="50" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="E167" s="25"/>
     </row>
@@ -12715,7 +12891,7 @@
         <v>606</v>
       </c>
       <c r="D168" s="50" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="E168" s="16"/>
     </row>
@@ -12731,7 +12907,7 @@
         <v>606</v>
       </c>
       <c r="D169" s="50" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="E169" s="16"/>
     </row>
@@ -12746,8 +12922,8 @@
       <c r="C170" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="D170" s="87" t="s">
-        <v>2127</v>
+      <c r="D170" s="84" t="s">
+        <v>2126</v>
       </c>
       <c r="E170" s="16"/>
     </row>
@@ -12762,8 +12938,8 @@
       <c r="C171" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="D171" s="87" t="s">
-        <v>2128</v>
+      <c r="D171" s="84" t="s">
+        <v>2127</v>
       </c>
       <c r="E171" s="16"/>
     </row>
@@ -12778,8 +12954,8 @@
       <c r="C172" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="D172" s="87" t="s">
-        <v>2129</v>
+      <c r="D172" s="84" t="s">
+        <v>2128</v>
       </c>
       <c r="E172" s="16"/>
     </row>
@@ -12794,8 +12970,8 @@
       <c r="C173" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="D173" s="87" t="s">
-        <v>2130</v>
+      <c r="D173" s="84" t="s">
+        <v>2129</v>
       </c>
       <c r="E173" s="16"/>
     </row>
@@ -13003,7 +13179,7 @@
         <v>606</v>
       </c>
       <c r="D186" s="51" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="E186" s="16"/>
     </row>
@@ -13019,7 +13195,7 @@
         <v>606</v>
       </c>
       <c r="D187" s="51" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E187" s="16"/>
     </row>
@@ -13035,7 +13211,7 @@
         <v>606</v>
       </c>
       <c r="D188" s="51" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="E188" s="16"/>
     </row>
@@ -13051,7 +13227,7 @@
         <v>606</v>
       </c>
       <c r="D189" s="51" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="E189" s="16"/>
     </row>
@@ -13067,7 +13243,7 @@
         <v>606</v>
       </c>
       <c r="D190" s="51" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="E190" s="16"/>
     </row>
@@ -13083,7 +13259,7 @@
         <v>606</v>
       </c>
       <c r="D191" s="51" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="E191" s="25"/>
     </row>
@@ -13099,7 +13275,7 @@
         <v>606</v>
       </c>
       <c r="D192" s="51" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="E192" s="16"/>
     </row>
@@ -13115,7 +13291,7 @@
         <v>606</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E193" s="25"/>
     </row>
@@ -13387,7 +13563,7 @@
         <v>606</v>
       </c>
       <c r="D210" s="52" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="E210" s="16"/>
     </row>
@@ -13403,7 +13579,7 @@
         <v>606</v>
       </c>
       <c r="D211" s="52" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="E211" s="16"/>
     </row>
@@ -13419,7 +13595,7 @@
         <v>606</v>
       </c>
       <c r="D212" s="52" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E212" s="16"/>
     </row>
@@ -13435,7 +13611,7 @@
         <v>606</v>
       </c>
       <c r="D213" s="52" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="E213" s="16"/>
     </row>
@@ -15051,7 +15227,7 @@
         <v>606</v>
       </c>
       <c r="D314" s="51" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="E314" s="16"/>
     </row>
@@ -15784,7 +15960,7 @@
         <v>145</v>
       </c>
       <c r="C360" s="14" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D360" s="62" t="s">
         <v>146</v>
@@ -15800,10 +15976,10 @@
         <v>147</v>
       </c>
       <c r="C361" s="14" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D361" s="42" t="s">
         <v>2096</v>
-      </c>
-      <c r="D361" s="42" t="s">
-        <v>2097</v>
       </c>
       <c r="E361" s="16"/>
     </row>
@@ -16235,7 +16411,7 @@
         <v>204</v>
       </c>
       <c r="D388" s="63" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="E388" s="16"/>
     </row>
@@ -16587,7 +16763,7 @@
         <v>226</v>
       </c>
       <c r="D410" s="63" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E410" s="16"/>
     </row>
@@ -19394,13 +19570,13 @@
         <v>793</v>
       </c>
       <c r="C582" s="16" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D582" s="4" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E582" s="11" t="s">
         <v>2139</v>
-      </c>
-      <c r="E582" s="11" t="s">
-        <v>2140</v>
       </c>
     </row>
     <row r="583" spans="1:5" ht="58" x14ac:dyDescent="0.3">
@@ -19472,7 +19648,7 @@
         <v>1102</v>
       </c>
       <c r="E586" s="11" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="587" spans="1:5" ht="43.5" x14ac:dyDescent="0.4">
@@ -19629,7 +19805,7 @@
     </row>
     <row r="596" spans="1:5" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A596" s="24">
-        <f t="shared" ref="A596:A715" si="8">ROW()+$C$5-6</f>
+        <f t="shared" ref="A596:A717" si="8">ROW()+$C$5-6</f>
         <v>500590</v>
       </c>
       <c r="B596" s="37" t="s">
@@ -19863,7 +20039,7 @@
         <v>851</v>
       </c>
       <c r="D610" s="4" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="E610" s="11"/>
     </row>
@@ -20135,7 +20311,7 @@
         <v>851</v>
       </c>
       <c r="D627" s="4" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="E627" s="11"/>
     </row>
@@ -20151,7 +20327,7 @@
         <v>851</v>
       </c>
       <c r="D628" s="4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E628" s="11"/>
     </row>
@@ -20537,7 +20713,7 @@
         <v>1215</v>
       </c>
       <c r="D652" s="4" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E652" s="11"/>
     </row>
@@ -20553,7 +20729,7 @@
         <v>1216</v>
       </c>
       <c r="D653" s="4" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="E653" s="11"/>
     </row>
@@ -20569,7 +20745,7 @@
         <v>1217</v>
       </c>
       <c r="D654" s="4" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="E654" s="11"/>
     </row>
@@ -20585,7 +20761,7 @@
         <v>1218</v>
       </c>
       <c r="D655" s="4" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="E655" s="11"/>
     </row>
@@ -20601,7 +20777,7 @@
         <v>1229</v>
       </c>
       <c r="D656" s="4" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="E656" s="11"/>
     </row>
@@ -20617,7 +20793,7 @@
         <v>1230</v>
       </c>
       <c r="D657" s="4" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E657" s="11"/>
     </row>
@@ -20777,7 +20953,7 @@
         <v>1320</v>
       </c>
       <c r="D667" s="4" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E667" s="11"/>
     </row>
@@ -20841,7 +21017,7 @@
         <v>1231</v>
       </c>
       <c r="D671" s="4" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E671" s="11"/>
     </row>
@@ -20857,7 +21033,7 @@
         <v>1231</v>
       </c>
       <c r="D672" s="4" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="E672" s="11"/>
     </row>
@@ -20873,7 +21049,7 @@
         <v>1231</v>
       </c>
       <c r="D673" s="4" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="E673" s="11"/>
     </row>
@@ -20889,7 +21065,7 @@
         <v>1231</v>
       </c>
       <c r="D674" s="4" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="E674" s="11"/>
     </row>
@@ -20899,13 +21075,13 @@
         <v>500669</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C675" s="4" t="s">
         <v>1231</v>
       </c>
       <c r="D675" s="4" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="E675" s="11"/>
     </row>
@@ -20915,13 +21091,13 @@
         <v>500670</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C676" s="4" t="s">
         <v>1231</v>
       </c>
       <c r="D676" s="4" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="E676" s="11"/>
     </row>
@@ -20931,13 +21107,13 @@
         <v>500671</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C677" s="4" t="s">
         <v>1231</v>
       </c>
       <c r="D677" s="4" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="E677" s="11"/>
     </row>
@@ -20995,13 +21171,13 @@
         <v>500675</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>1246</v>
+        <v>2189</v>
       </c>
       <c r="C681" s="4" t="s">
-        <v>1250</v>
+        <v>2191</v>
       </c>
       <c r="D681" s="4" t="s">
-        <v>2131</v>
+        <v>2192</v>
       </c>
       <c r="E681" s="11"/>
     </row>
@@ -21011,13 +21187,13 @@
         <v>500676</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>1247</v>
+        <v>2190</v>
       </c>
       <c r="C682" s="4" t="s">
-        <v>1250</v>
+        <v>2191</v>
       </c>
       <c r="D682" s="4" t="s">
-        <v>854</v>
+        <v>2193</v>
       </c>
       <c r="E682" s="11"/>
     </row>
@@ -21027,13 +21203,13 @@
         <v>500677</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C683" s="4" t="s">
         <v>1250</v>
       </c>
       <c r="D683" s="4" t="s">
-        <v>856</v>
+        <v>2130</v>
       </c>
       <c r="E683" s="11"/>
     </row>
@@ -21043,45 +21219,45 @@
         <v>500678</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>1281</v>
+        <v>1247</v>
       </c>
       <c r="C684" s="4" t="s">
         <v>1250</v>
       </c>
       <c r="D684" s="4" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E684" s="11"/>
     </row>
     <row r="685" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A685" s="38">
-        <f t="shared" ref="A685:A686" si="9">ROW()+$C$5-6</f>
+        <f t="shared" si="8"/>
         <v>500679</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C685" s="4" t="s">
         <v>1250</v>
       </c>
       <c r="D685" s="4" t="s">
-        <v>1289</v>
+        <v>856</v>
       </c>
       <c r="E685" s="11"/>
     </row>
     <row r="686" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A686" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>500680</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="C686" s="4" t="s">
         <v>1250</v>
       </c>
       <c r="D686" s="4" t="s">
-        <v>1291</v>
+        <v>852</v>
       </c>
       <c r="E686" s="11"/>
     </row>
@@ -21091,13 +21267,13 @@
         <v>500681</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D687" s="4" t="s">
-        <v>1251</v>
+        <v>1289</v>
       </c>
       <c r="E687" s="11"/>
     </row>
@@ -21107,13 +21283,13 @@
         <v>500682</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="C688" s="4" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D688" s="4" t="s">
-        <v>1280</v>
+        <v>1291</v>
       </c>
       <c r="E688" s="11"/>
     </row>
@@ -21123,13 +21299,13 @@
         <v>500683</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>1284</v>
+        <v>1253</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>520</v>
+        <v>1252</v>
       </c>
       <c r="D689" s="4" t="s">
-        <v>1821</v>
+        <v>1251</v>
       </c>
       <c r="E689" s="11"/>
     </row>
@@ -21139,13 +21315,13 @@
         <v>500684</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="C690" s="4" t="s">
-        <v>520</v>
+        <v>1252</v>
       </c>
       <c r="D690" s="4" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="E690" s="11"/>
     </row>
@@ -21155,13 +21331,13 @@
         <v>500685</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C691" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D691" s="4" t="s">
-        <v>1833</v>
+        <v>1821</v>
       </c>
       <c r="E691" s="11"/>
     </row>
@@ -21171,13 +21347,13 @@
         <v>500686</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>1824</v>
+        <v>1286</v>
       </c>
       <c r="C692" s="4" t="s">
-        <v>1816</v>
+        <v>520</v>
       </c>
       <c r="D692" s="4" t="s">
-        <v>1815</v>
+        <v>1287</v>
       </c>
       <c r="E692" s="11"/>
     </row>
@@ -21187,13 +21363,13 @@
         <v>500687</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>1825</v>
+        <v>1288</v>
       </c>
       <c r="C693" s="4" t="s">
-        <v>1818</v>
+        <v>520</v>
       </c>
       <c r="D693" s="4" t="s">
-        <v>1817</v>
+        <v>1833</v>
       </c>
       <c r="E693" s="11"/>
     </row>
@@ -21203,13 +21379,13 @@
         <v>500688</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="C694" s="4" t="s">
-        <v>520</v>
+        <v>1816</v>
       </c>
       <c r="D694" s="4" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="E694" s="11"/>
     </row>
@@ -21219,13 +21395,13 @@
         <v>500689</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="C695" s="4" t="s">
-        <v>520</v>
+        <v>1818</v>
       </c>
       <c r="D695" s="4" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="E695" s="11"/>
     </row>
@@ -21235,13 +21411,13 @@
         <v>500690</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="C696" s="4" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D696" s="72">
-        <v>1</v>
+        <v>520</v>
+      </c>
+      <c r="D696" s="4" t="s">
+        <v>1819</v>
       </c>
       <c r="E696" s="11"/>
     </row>
@@ -21251,13 +21427,13 @@
         <v>500691</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="C697" s="4" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D697" s="72">
-        <v>2</v>
+        <v>520</v>
+      </c>
+      <c r="D697" s="4" t="s">
+        <v>1820</v>
       </c>
       <c r="E697" s="11"/>
     </row>
@@ -21267,13 +21443,13 @@
         <v>500692</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="C698" s="4" t="s">
         <v>1823</v>
       </c>
       <c r="D698" s="72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E698" s="11"/>
     </row>
@@ -21283,13 +21459,13 @@
         <v>500693</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="C699" s="4" t="s">
         <v>1823</v>
       </c>
-      <c r="D699" s="4" t="s">
-        <v>1822</v>
+      <c r="D699" s="72">
+        <v>2</v>
       </c>
       <c r="E699" s="11"/>
     </row>
@@ -21299,13 +21475,13 @@
         <v>500694</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="C700" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="D700" s="4" t="s">
-        <v>1834</v>
+        <v>1823</v>
+      </c>
+      <c r="D700" s="72">
+        <v>3</v>
       </c>
       <c r="E700" s="11"/>
     </row>
@@ -21315,13 +21491,13 @@
         <v>500695</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
       <c r="C701" s="4" t="s">
-        <v>520</v>
+        <v>1823</v>
       </c>
       <c r="D701" s="4" t="s">
-        <v>1837</v>
+        <v>1822</v>
       </c>
       <c r="E701" s="11"/>
     </row>
@@ -21331,13 +21507,13 @@
         <v>500696</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>1873</v>
+        <v>1835</v>
       </c>
       <c r="C702" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D702" s="4" t="s">
-        <v>1920</v>
+        <v>1834</v>
       </c>
       <c r="E702" s="11"/>
     </row>
@@ -21347,13 +21523,13 @@
         <v>500697</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>1874</v>
+        <v>1836</v>
       </c>
       <c r="C703" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D703" s="4" t="s">
-        <v>1919</v>
+        <v>1837</v>
       </c>
       <c r="E703" s="11"/>
     </row>
@@ -21363,13 +21539,13 @@
         <v>500698</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="C704" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D704" s="4" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="E704" s="11"/>
     </row>
@@ -21379,13 +21555,13 @@
         <v>500699</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="C705" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D705" s="4" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="E705" s="11"/>
     </row>
@@ -21395,13 +21571,13 @@
         <v>500700</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="C706" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D706" s="4" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="E706" s="11"/>
     </row>
@@ -21411,13 +21587,13 @@
         <v>500701</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="C707" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D707" s="4" t="s">
-        <v>1912</v>
+        <v>1917</v>
       </c>
       <c r="E707" s="11"/>
     </row>
@@ -21427,13 +21603,13 @@
         <v>500702</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="C708" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D708" s="4" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
       <c r="E708" s="11"/>
     </row>
@@ -21443,13 +21619,13 @@
         <v>500703</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="C709" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D709" s="4" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="E709" s="11"/>
     </row>
@@ -21459,13 +21635,13 @@
         <v>500704</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="C710" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D710" s="4" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="E710" s="11"/>
     </row>
@@ -21475,13 +21651,13 @@
         <v>500705</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>1908</v>
+        <v>1880</v>
       </c>
       <c r="C711" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D711" s="4" t="s">
-        <v>1909</v>
+        <v>1914</v>
       </c>
       <c r="E711" s="11"/>
     </row>
@@ -21491,13 +21667,13 @@
         <v>500706</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>1923</v>
+        <v>1881</v>
       </c>
       <c r="C712" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="D712" s="72">
-        <v>1</v>
+      <c r="D712" s="4" t="s">
+        <v>1915</v>
       </c>
       <c r="E712" s="11"/>
     </row>
@@ -21507,13 +21683,13 @@
         <v>500707</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>1924</v>
+        <v>1908</v>
       </c>
       <c r="C713" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D713" s="4" t="s">
-        <v>1921</v>
+        <v>1909</v>
       </c>
       <c r="E713" s="11"/>
     </row>
@@ -21523,3897 +21699,4096 @@
         <v>500708</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="C714" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="D714" s="4" t="s">
-        <v>1922</v>
+      <c r="D714" s="72">
+        <v>1</v>
       </c>
       <c r="E714" s="11"/>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A715" s="38">
         <f t="shared" si="8"/>
         <v>500709</v>
       </c>
-      <c r="B715" s="28" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C715" s="7"/>
-      <c r="D715" s="66" t="s">
-        <v>1345</v>
+      <c r="B715" s="4" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C715" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D715" s="4" t="s">
+        <v>1921</v>
       </c>
       <c r="E715" s="11"/>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A716" s="38">
-        <f t="shared" ref="A716:A717" si="10">ROW()+$C$5-6</f>
+        <f t="shared" si="8"/>
         <v>500710</v>
       </c>
-      <c r="B716" s="28" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C716" s="7"/>
-      <c r="D716" s="66" t="s">
-        <v>1347</v>
+      <c r="B716" s="4" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C716" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D716" s="4" t="s">
+        <v>1922</v>
       </c>
       <c r="E716" s="11"/>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A717" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>500711</v>
       </c>
       <c r="B717" s="28" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C717" s="7"/>
       <c r="D717" s="66" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="E717" s="11"/>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A718" s="38">
-        <f t="shared" ref="A718:A779" si="11">ROW()+$C$5-6</f>
+        <f t="shared" ref="A718:A781" si="9">ROW()+$C$5-6</f>
         <v>500712</v>
       </c>
       <c r="B718" s="28" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="C718" s="7"/>
       <c r="D718" s="66" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="E718" s="11"/>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A719" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500713</v>
       </c>
       <c r="B719" s="28" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C719" s="7"/>
       <c r="D719" s="66" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="E719" s="11"/>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A720" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500714</v>
       </c>
       <c r="B720" s="28" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="C720" s="7"/>
       <c r="D720" s="66" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="E720" s="11"/>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A721" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500715</v>
       </c>
       <c r="B721" s="28" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="C721" s="7"/>
       <c r="D721" s="66" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="E721" s="11"/>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A722" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500716</v>
       </c>
       <c r="B722" s="28" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="C722" s="7"/>
       <c r="D722" s="66" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="E722" s="11"/>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A723" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500717</v>
       </c>
       <c r="B723" s="28" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C723" s="7"/>
       <c r="D723" s="66" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="E723" s="11"/>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A724" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500718</v>
       </c>
       <c r="B724" s="28" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="C724" s="7"/>
       <c r="D724" s="66" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="E724" s="11"/>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A725" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500719</v>
       </c>
       <c r="B725" s="28" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="C725" s="7"/>
       <c r="D725" s="66" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="E725" s="11"/>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A726" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500720</v>
       </c>
       <c r="B726" s="28" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C726" s="7"/>
       <c r="D726" s="66" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="E726" s="11"/>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A727" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500721</v>
       </c>
       <c r="B727" s="28" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C727" s="7"/>
       <c r="D727" s="66" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="E727" s="11"/>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A728" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500722</v>
       </c>
       <c r="B728" s="28" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C728" s="7"/>
       <c r="D728" s="66" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="E728" s="11"/>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A729" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500723</v>
       </c>
       <c r="B729" s="28" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C729" s="7"/>
       <c r="D729" s="66" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="E729" s="11"/>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A730" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500724</v>
       </c>
       <c r="B730" s="28" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C730" s="7"/>
-      <c r="D730" s="39" t="s">
-        <v>1375</v>
+      <c r="D730" s="66" t="s">
+        <v>1371</v>
       </c>
       <c r="E730" s="11"/>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A731" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500725</v>
       </c>
       <c r="B731" s="28" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C731" s="7"/>
       <c r="D731" s="66" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="E731" s="11"/>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A732" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500726</v>
       </c>
       <c r="B732" s="28" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C732" s="7"/>
-      <c r="D732" s="66" t="s">
-        <v>1379</v>
+      <c r="D732" s="39" t="s">
+        <v>1375</v>
       </c>
       <c r="E732" s="11"/>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A733" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500727</v>
       </c>
       <c r="B733" s="28" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C733" s="7"/>
       <c r="D733" s="66" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="E733" s="11"/>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A734" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500728</v>
       </c>
       <c r="B734" s="28" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C734" s="7"/>
       <c r="D734" s="66" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="E734" s="11"/>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A735" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500729</v>
       </c>
       <c r="B735" s="28" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C735" s="7"/>
-      <c r="D735" s="39" t="s">
-        <v>1385</v>
+      <c r="D735" s="66" t="s">
+        <v>1381</v>
       </c>
       <c r="E735" s="11"/>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A736" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500730</v>
       </c>
       <c r="B736" s="28" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C736" s="7"/>
-      <c r="D736" s="39" t="s">
-        <v>1387</v>
+      <c r="D736" s="66" t="s">
+        <v>1383</v>
       </c>
       <c r="E736" s="11"/>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A737" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500731</v>
       </c>
       <c r="B737" s="28" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C737" s="7"/>
-      <c r="D737" s="66" t="s">
-        <v>1389</v>
+      <c r="D737" s="39" t="s">
+        <v>1385</v>
       </c>
       <c r="E737" s="11"/>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A738" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500732</v>
       </c>
       <c r="B738" s="28" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C738" s="7"/>
-      <c r="D738" s="66" t="s">
-        <v>1391</v>
+      <c r="D738" s="39" t="s">
+        <v>1387</v>
       </c>
       <c r="E738" s="11"/>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A739" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500733</v>
       </c>
       <c r="B739" s="28" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C739" s="7"/>
       <c r="D739" s="66" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="E739" s="11"/>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A740" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500734</v>
       </c>
       <c r="B740" s="28" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C740" s="7"/>
       <c r="D740" s="66" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="E740" s="11"/>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A741" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500735</v>
       </c>
       <c r="B741" s="28" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C741" s="7"/>
       <c r="D741" s="66" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="E741" s="11"/>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A742" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500736</v>
       </c>
       <c r="B742" s="28" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C742" s="7"/>
       <c r="D742" s="66" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="E742" s="11"/>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A743" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500737</v>
       </c>
       <c r="B743" s="28" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C743" s="7"/>
       <c r="D743" s="66" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="E743" s="11"/>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A744" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500738</v>
       </c>
       <c r="B744" s="28" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C744" s="7"/>
       <c r="D744" s="66" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="E744" s="11"/>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A745" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500739</v>
       </c>
       <c r="B745" s="28" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C745" s="7"/>
       <c r="D745" s="66" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="E745" s="11"/>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A746" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500740</v>
       </c>
       <c r="B746" s="28" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C746" s="7"/>
       <c r="D746" s="66" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="E746" s="11"/>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A747" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500741</v>
       </c>
       <c r="B747" s="28" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C747" s="7"/>
       <c r="D747" s="66" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="E747" s="11"/>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A748" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500742</v>
       </c>
       <c r="B748" s="28" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C748" s="7"/>
       <c r="D748" s="66" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="E748" s="11"/>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A749" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500743</v>
       </c>
       <c r="B749" s="28" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C749" s="7"/>
       <c r="D749" s="66" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="E749" s="11"/>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A750" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500744</v>
       </c>
       <c r="B750" s="28" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C750" s="7"/>
       <c r="D750" s="66" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="E750" s="11"/>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A751" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500745</v>
       </c>
       <c r="B751" s="28" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C751" s="7"/>
       <c r="D751" s="66" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="E751" s="11"/>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A752" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500746</v>
       </c>
       <c r="B752" s="28" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C752" s="7"/>
       <c r="D752" s="66" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="E752" s="11"/>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A753" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500747</v>
       </c>
       <c r="B753" s="28" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C753" s="7"/>
       <c r="D753" s="66" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="E753" s="11"/>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A754" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500748</v>
       </c>
       <c r="B754" s="28" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C754" s="7"/>
       <c r="D754" s="66" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="E754" s="11"/>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A755" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500749</v>
       </c>
       <c r="B755" s="28" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C755" s="7"/>
       <c r="D755" s="66" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="E755" s="11"/>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A756" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500750</v>
       </c>
       <c r="B756" s="28" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="C756" s="7"/>
       <c r="D756" s="66" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="E756" s="11"/>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A757" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500751</v>
       </c>
       <c r="B757" s="28" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C757" s="7"/>
       <c r="D757" s="66" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="E757" s="11"/>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A758" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500752</v>
       </c>
       <c r="B758" s="28" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="C758" s="7"/>
       <c r="D758" s="66" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="E758" s="11"/>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A759" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500753</v>
       </c>
       <c r="B759" s="28" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C759" s="7"/>
       <c r="D759" s="66" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="E759" s="11"/>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A760" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500754</v>
       </c>
       <c r="B760" s="28" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C760" s="7"/>
       <c r="D760" s="66" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="E760" s="11"/>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A761" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500755</v>
       </c>
       <c r="B761" s="28" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C761" s="7"/>
       <c r="D761" s="66" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="E761" s="11"/>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A762" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500756</v>
       </c>
       <c r="B762" s="28" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C762" s="7"/>
       <c r="D762" s="66" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="E762" s="11"/>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A763" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500757</v>
       </c>
       <c r="B763" s="28" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C763" s="7"/>
       <c r="D763" s="66" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E763" s="11"/>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A764" s="38">
+        <f t="shared" si="9"/>
+        <v>500758</v>
+      </c>
+      <c r="B764" s="28" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C764" s="7"/>
+      <c r="D764" s="66" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E764" s="11"/>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A765" s="38">
+        <f t="shared" si="9"/>
+        <v>500759</v>
+      </c>
+      <c r="B765" s="28" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C765" s="7"/>
+      <c r="D765" s="66" t="s">
         <v>1441</v>
-      </c>
-      <c r="E763" s="11"/>
-    </row>
-    <row r="764" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
-      <c r="A764" s="38">
-        <f t="shared" si="11"/>
-        <v>500758</v>
-      </c>
-      <c r="B764" s="28" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C764" s="7" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D764" s="66" t="s">
-        <v>1444</v>
-      </c>
-      <c r="E764" s="11"/>
-    </row>
-    <row r="765" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
-      <c r="A765" s="38">
-        <f t="shared" si="11"/>
-        <v>500759</v>
-      </c>
-      <c r="B765" s="28" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C765" s="7" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D765" s="66" t="s">
-        <v>1446</v>
       </c>
       <c r="E765" s="11"/>
     </row>
     <row r="766" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A766" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500760</v>
       </c>
       <c r="B766" s="28" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="C766" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D766" s="66" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="E766" s="11"/>
     </row>
     <row r="767" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A767" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500761</v>
       </c>
       <c r="B767" s="28" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="C767" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D767" s="66" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="E767" s="11"/>
     </row>
     <row r="768" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A768" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500762</v>
       </c>
       <c r="B768" s="28" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="C768" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D768" s="66" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="E768" s="11"/>
     </row>
     <row r="769" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A769" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500763</v>
       </c>
       <c r="B769" s="28" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="C769" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D769" s="66" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="E769" s="11"/>
     </row>
     <row r="770" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A770" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500764</v>
       </c>
       <c r="B770" s="28" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="C770" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D770" s="66" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="E770" s="11"/>
     </row>
     <row r="771" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A771" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500765</v>
       </c>
       <c r="B771" s="28" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="C771" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D771" s="66" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="E771" s="11"/>
     </row>
     <row r="772" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A772" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500766</v>
       </c>
       <c r="B772" s="28" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="C772" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D772" s="66" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="E772" s="11"/>
     </row>
     <row r="773" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A773" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500767</v>
       </c>
       <c r="B773" s="28" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="C773" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D773" s="66" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="E773" s="11"/>
     </row>
     <row r="774" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A774" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500768</v>
       </c>
       <c r="B774" s="28" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="C774" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D774" s="66" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="E774" s="11"/>
     </row>
     <row r="775" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A775" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500769</v>
       </c>
       <c r="B775" s="28" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="C775" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D775" s="66" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="E775" s="11"/>
     </row>
     <row r="776" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A776" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500770</v>
       </c>
       <c r="B776" s="28" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C776" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D776" s="66" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="E776" s="11"/>
     </row>
     <row r="777" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A777" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500771</v>
       </c>
       <c r="B777" s="28" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="C777" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D777" s="66" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="E777" s="11"/>
     </row>
     <row r="778" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A778" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500772</v>
       </c>
       <c r="B778" s="28" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="C778" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D778" s="66" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="E778" s="11"/>
     </row>
     <row r="779" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A779" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>500773</v>
       </c>
       <c r="B779" s="28" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="C779" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D779" s="66" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="E779" s="11"/>
     </row>
     <row r="780" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A780" s="38">
-        <f t="shared" ref="A780:A841" si="12">ROW()+$C$5-6</f>
+        <f t="shared" si="9"/>
         <v>500774</v>
       </c>
       <c r="B780" s="28" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="C780" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D780" s="66" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="E780" s="11"/>
     </row>
     <row r="781" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A781" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>500775</v>
       </c>
       <c r="B781" s="28" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="C781" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D781" s="66" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="E781" s="11"/>
     </row>
     <row r="782" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A782" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="A782:A845" si="10">ROW()+$C$5-6</f>
         <v>500776</v>
       </c>
       <c r="B782" s="28" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="C782" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D782" s="66" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="E782" s="11"/>
     </row>
     <row r="783" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A783" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500777</v>
       </c>
       <c r="B783" s="28" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="C783" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D783" s="66" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="E783" s="11"/>
     </row>
     <row r="784" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A784" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500778</v>
       </c>
       <c r="B784" s="28" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="C784" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D784" s="66" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="E784" s="11"/>
     </row>
     <row r="785" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A785" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500779</v>
       </c>
       <c r="B785" s="28" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="C785" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D785" s="66" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="E785" s="11"/>
     </row>
     <row r="786" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A786" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500780</v>
       </c>
       <c r="B786" s="28" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="C786" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D786" s="66" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="E786" s="11"/>
     </row>
     <row r="787" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A787" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500781</v>
       </c>
       <c r="B787" s="28" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="C787" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D787" s="66" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="E787" s="11"/>
     </row>
     <row r="788" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A788" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500782</v>
       </c>
       <c r="B788" s="28" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="C788" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D788" s="66" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="E788" s="11"/>
     </row>
     <row r="789" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A789" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500783</v>
       </c>
       <c r="B789" s="28" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="C789" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D789" s="66" t="s">
-        <v>1464</v>
+        <v>1490</v>
       </c>
       <c r="E789" s="11"/>
     </row>
     <row r="790" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A790" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500784</v>
       </c>
       <c r="B790" s="28" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="C790" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D790" s="66" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E790" s="11"/>
     </row>
     <row r="791" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A791" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500785</v>
       </c>
       <c r="B791" s="28" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C791" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D791" s="66" t="s">
-        <v>1497</v>
+        <v>1464</v>
       </c>
       <c r="E791" s="11"/>
     </row>
     <row r="792" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A792" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500786</v>
       </c>
       <c r="B792" s="28" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="C792" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D792" s="66" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="E792" s="11"/>
     </row>
     <row r="793" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A793" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500787</v>
       </c>
       <c r="B793" s="28" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="C793" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D793" s="66" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="E793" s="11"/>
     </row>
     <row r="794" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A794" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500788</v>
       </c>
       <c r="B794" s="28" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="C794" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D794" s="66" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="E794" s="11"/>
     </row>
     <row r="795" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A795" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500789</v>
       </c>
       <c r="B795" s="28" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="C795" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D795" s="66" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="E795" s="11"/>
     </row>
     <row r="796" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A796" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500790</v>
       </c>
       <c r="B796" s="28" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="C796" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D796" s="66" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="E796" s="11"/>
     </row>
     <row r="797" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A797" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500791</v>
       </c>
       <c r="B797" s="28" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="C797" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D797" s="66" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="E797" s="11"/>
     </row>
     <row r="798" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A798" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500792</v>
       </c>
       <c r="B798" s="28" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="C798" s="7" t="s">
         <v>1443</v>
       </c>
       <c r="D798" s="66" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="E798" s="11"/>
     </row>
     <row r="799" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A799" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500793</v>
       </c>
       <c r="B799" s="28" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C799" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D799" s="66" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E799" s="11"/>
+    </row>
+    <row r="800" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
+      <c r="A800" s="38">
+        <f t="shared" si="10"/>
+        <v>500794</v>
+      </c>
+      <c r="B800" s="28" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C800" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D800" s="66" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E800" s="11"/>
+    </row>
+    <row r="801" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
+      <c r="A801" s="38">
+        <f t="shared" si="10"/>
+        <v>500795</v>
+      </c>
+      <c r="B801" s="28" t="s">
         <v>1512</v>
       </c>
-      <c r="C799" s="7" t="s">
-        <v>2093</v>
-      </c>
-      <c r="D799" s="66" t="s">
+      <c r="C801" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D801" s="66" t="s">
         <v>1513</v>
-      </c>
-      <c r="E799" s="11"/>
-    </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A800" s="38">
-        <f t="shared" si="12"/>
-        <v>500794</v>
-      </c>
-      <c r="B800" s="40" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C800" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="D800" s="55" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E800" s="11"/>
-    </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A801" s="38">
-        <f t="shared" si="12"/>
-        <v>500795</v>
-      </c>
-      <c r="B801" s="40" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C801" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="D801" s="55" t="s">
-        <v>1517</v>
       </c>
       <c r="E801" s="11"/>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A802" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500796</v>
       </c>
       <c r="B802" s="40" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="C802" s="40" t="s">
         <v>157</v>
       </c>
       <c r="D802" s="55" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="E802" s="11"/>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A803" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500797</v>
       </c>
       <c r="B803" s="40" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="C803" s="40" t="s">
         <v>157</v>
       </c>
       <c r="D803" s="55" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="E803" s="11"/>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A804" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500798</v>
       </c>
       <c r="B804" s="40" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="C804" s="40" t="s">
         <v>157</v>
       </c>
       <c r="D804" s="55" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="E804" s="11"/>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A805" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500799</v>
       </c>
       <c r="B805" s="40" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="C805" s="40" t="s">
         <v>157</v>
       </c>
       <c r="D805" s="55" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="E805" s="11"/>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A806" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500800</v>
       </c>
       <c r="B806" s="40" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="C806" s="40" t="s">
         <v>157</v>
       </c>
       <c r="D806" s="55" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="E806" s="11"/>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A807" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500801</v>
       </c>
       <c r="B807" s="40" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="C807" s="40" t="s">
         <v>157</v>
       </c>
       <c r="D807" s="55" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="E807" s="11"/>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A808" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500802</v>
       </c>
       <c r="B808" s="40" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="C808" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D808" s="70" t="s">
-        <v>1531</v>
+      <c r="D808" s="55" t="s">
+        <v>1527</v>
       </c>
       <c r="E808" s="11"/>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A809" s="38">
-        <f>ROW()+$C$5-6</f>
+        <f t="shared" si="10"/>
         <v>500803</v>
       </c>
       <c r="B809" s="40" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="C809" s="40" t="s">
         <v>157</v>
       </c>
       <c r="D809" s="55" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="E809" s="11"/>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A810" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500804</v>
       </c>
       <c r="B810" s="40" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="C810" s="40" t="s">
         <v>157</v>
       </c>
       <c r="D810" s="70" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="E810" s="11"/>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A811" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500805</v>
       </c>
       <c r="B811" s="40" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="C811" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D811" s="70" t="s">
-        <v>2089</v>
+      <c r="D811" s="55" t="s">
+        <v>1533</v>
       </c>
       <c r="E811" s="11"/>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A812" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500806</v>
       </c>
       <c r="B812" s="40" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="C812" s="40" t="s">
         <v>157</v>
       </c>
       <c r="D812" s="70" t="s">
-        <v>2090</v>
+        <v>1535</v>
       </c>
       <c r="E812" s="11"/>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A813" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500807</v>
       </c>
       <c r="B813" s="40" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C813" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D813" s="55" t="s">
-        <v>2091</v>
+      <c r="D813" s="70" t="s">
+        <v>2088</v>
       </c>
       <c r="E813" s="11"/>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A814" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500808</v>
       </c>
       <c r="B814" s="40" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C814" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D814" s="55" t="s">
-        <v>2092</v>
+      <c r="D814" s="70" t="s">
+        <v>2089</v>
       </c>
       <c r="E814" s="11"/>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A815" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500809</v>
       </c>
       <c r="B815" s="40" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C815" s="40" t="s">
         <v>157</v>
       </c>
       <c r="D815" s="55" t="s">
-        <v>1541</v>
+        <v>2090</v>
       </c>
       <c r="E815" s="11"/>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A816" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500810</v>
       </c>
       <c r="B816" s="40" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="C816" s="40" t="s">
         <v>157</v>
       </c>
       <c r="D816" s="55" t="s">
-        <v>1543</v>
+        <v>2091</v>
       </c>
       <c r="E816" s="11"/>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A817" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500811</v>
       </c>
       <c r="B817" s="40" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="C817" s="40" t="s">
         <v>157</v>
       </c>
       <c r="D817" s="55" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="E817" s="11"/>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A818" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500812</v>
       </c>
       <c r="B818" s="40" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C818" s="41" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C818" s="40" t="s">
         <v>157</v>
       </c>
       <c r="D818" s="55" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="E818" s="11"/>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A819" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500813</v>
       </c>
       <c r="B819" s="40" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C819" s="41" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C819" s="40" t="s">
         <v>157</v>
       </c>
       <c r="D819" s="55" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="E819" s="11"/>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A820" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500814</v>
       </c>
       <c r="B820" s="40" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="C820" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D820" s="55" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="E820" s="11"/>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A821" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500815</v>
       </c>
       <c r="B821" s="40" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="C821" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D821" s="55" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="E821" s="11"/>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A822" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500816</v>
       </c>
       <c r="B822" s="40" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="C822" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D822" s="55" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="E822" s="11"/>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A823" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500817</v>
       </c>
       <c r="B823" s="40" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="C823" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D823" s="55" t="s">
-        <v>2108</v>
+        <v>1553</v>
       </c>
       <c r="E823" s="11"/>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A824" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500818</v>
       </c>
       <c r="B824" s="40" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="C824" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D824" s="55" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="E824" s="11"/>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A825" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500819</v>
       </c>
       <c r="B825" s="40" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="C825" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D825" s="55" t="s">
-        <v>1560</v>
+        <v>2107</v>
       </c>
       <c r="E825" s="11"/>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A826" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500820</v>
       </c>
       <c r="B826" s="40" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="C826" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D826" s="55" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="E826" s="11"/>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A827" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500821</v>
       </c>
       <c r="B827" s="40" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="C827" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D827" s="55" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="E827" s="11"/>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A828" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500822</v>
       </c>
       <c r="B828" s="40" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="C828" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D828" s="55" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="E828" s="11"/>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A829" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500823</v>
       </c>
       <c r="B829" s="40" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="C829" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D829" s="55" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="E829" s="11"/>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A830" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500824</v>
       </c>
       <c r="B830" s="40" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="C830" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D830" s="55" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="E830" s="11"/>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A831" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500825</v>
       </c>
       <c r="B831" s="40" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="C831" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D831" s="55" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="E831" s="11"/>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A832" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500826</v>
       </c>
       <c r="B832" s="40" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="C832" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D832" s="55" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="E832" s="11"/>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A833" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500827</v>
       </c>
       <c r="B833" s="40" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="C833" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D833" s="55" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="E833" s="11"/>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A834" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500828</v>
       </c>
       <c r="B834" s="40" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="C834" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="D834" s="70" t="s">
-        <v>1578</v>
+      <c r="D834" s="55" t="s">
+        <v>1574</v>
       </c>
       <c r="E834" s="11"/>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A835" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500829</v>
       </c>
       <c r="B835" s="40" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="C835" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="D835" s="70" t="s">
-        <v>1580</v>
+      <c r="D835" s="55" t="s">
+        <v>1576</v>
       </c>
       <c r="E835" s="11"/>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A836" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500830</v>
       </c>
       <c r="B836" s="40" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="C836" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D836" s="70" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="E836" s="11"/>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A837" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500831</v>
       </c>
       <c r="B837" s="40" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="C837" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D837" s="70" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="E837" s="11"/>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A838" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500832</v>
       </c>
       <c r="B838" s="40" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="C838" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="D838" s="55" t="s">
-        <v>1586</v>
+      <c r="D838" s="70" t="s">
+        <v>1582</v>
       </c>
       <c r="E838" s="11"/>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A839" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500833</v>
       </c>
       <c r="B839" s="40" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="C839" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="D839" s="55" t="s">
-        <v>1588</v>
+      <c r="D839" s="70" t="s">
+        <v>1584</v>
       </c>
       <c r="E839" s="11"/>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A840" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500834</v>
       </c>
       <c r="B840" s="40" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="C840" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D840" s="55" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="E840" s="11"/>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A841" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>500835</v>
       </c>
       <c r="B841" s="40" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="C841" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D841" s="55" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="E841" s="11"/>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A842" s="38">
-        <f t="shared" ref="A842:A915" si="13">ROW()+$C$5-6</f>
+        <f t="shared" si="10"/>
         <v>500836</v>
       </c>
       <c r="B842" s="40" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C842" s="40" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C842" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="D842" s="71" t="s">
-        <v>1594</v>
+      <c r="D842" s="55" t="s">
+        <v>1590</v>
       </c>
       <c r="E842" s="11"/>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A843" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>500837</v>
       </c>
       <c r="B843" s="40" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C843" s="40" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C843" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="D843" s="71" t="s">
-        <v>1596</v>
+      <c r="D843" s="55" t="s">
+        <v>1592</v>
       </c>
       <c r="E843" s="11"/>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A844" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>500838</v>
       </c>
       <c r="B844" s="40" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="C844" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D844" s="29" t="s">
-        <v>1598</v>
+      <c r="D844" s="71" t="s">
+        <v>1594</v>
       </c>
       <c r="E844" s="11"/>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A845" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>500839</v>
       </c>
       <c r="B845" s="40" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="C845" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D845" s="29" t="s">
+      <c r="D845" s="71" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E845" s="11"/>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A846" s="38">
+        <f t="shared" ref="A846:A909" si="11">ROW()+$C$5-6</f>
+        <v>500840</v>
+      </c>
+      <c r="B846" s="40" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C846" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D846" s="29" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E846" s="11"/>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A847" s="38">
+        <f t="shared" si="11"/>
+        <v>500841</v>
+      </c>
+      <c r="B847" s="40" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C847" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D847" s="29" t="s">
         <v>1600</v>
-      </c>
-      <c r="E845" s="11"/>
-    </row>
-    <row r="846" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
-      <c r="A846" s="38">
-        <f t="shared" si="13"/>
-        <v>500840</v>
-      </c>
-      <c r="B846" s="28" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C846" s="9" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D846" s="28" t="s">
-        <v>1602</v>
-      </c>
-      <c r="E846" s="11"/>
-    </row>
-    <row r="847" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
-      <c r="A847" s="38">
-        <f t="shared" si="13"/>
-        <v>500841</v>
-      </c>
-      <c r="B847" s="28" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C847" s="9" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D847" s="28" t="s">
-        <v>1604</v>
       </c>
       <c r="E847" s="11"/>
     </row>
     <row r="848" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A848" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500842</v>
       </c>
       <c r="B848" s="28" t="s">
-        <v>1605</v>
+        <v>1645</v>
       </c>
       <c r="C848" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D848" s="28" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="E848" s="11"/>
     </row>
     <row r="849" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A849" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500843</v>
       </c>
       <c r="B849" s="28" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="C849" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D849" s="28" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="E849" s="11"/>
     </row>
     <row r="850" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A850" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500844</v>
       </c>
       <c r="B850" s="28" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="C850" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D850" s="28" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="E850" s="11"/>
     </row>
     <row r="851" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A851" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500845</v>
       </c>
       <c r="B851" s="28" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="C851" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D851" s="28" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="E851" s="11"/>
     </row>
     <row r="852" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A852" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500846</v>
       </c>
       <c r="B852" s="28" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="C852" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D852" s="28" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="E852" s="11"/>
     </row>
     <row r="853" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A853" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500847</v>
       </c>
       <c r="B853" s="28" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="C853" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D853" s="28" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="E853" s="11"/>
     </row>
     <row r="854" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A854" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500848</v>
       </c>
       <c r="B854" s="28" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="C854" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D854" s="28" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="E854" s="11"/>
     </row>
     <row r="855" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A855" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500849</v>
       </c>
       <c r="B855" s="28" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="C855" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D855" s="28" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="E855" s="11"/>
     </row>
     <row r="856" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A856" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500850</v>
       </c>
       <c r="B856" s="28" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="C856" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D856" s="28" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="E856" s="11"/>
     </row>
     <row r="857" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A857" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500851</v>
       </c>
       <c r="B857" s="28" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="C857" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D857" s="28" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="E857" s="11"/>
     </row>
     <row r="858" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A858" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500852</v>
       </c>
       <c r="B858" s="28" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="C858" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D858" s="28" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="E858" s="11"/>
     </row>
     <row r="859" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A859" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500853</v>
       </c>
       <c r="B859" s="28" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C859" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D859" s="28" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="E859" s="11"/>
     </row>
     <row r="860" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A860" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500854</v>
       </c>
       <c r="B860" s="28" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="C860" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D860" s="28" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="E860" s="11"/>
     </row>
     <row r="861" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A861" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500855</v>
       </c>
       <c r="B861" s="28" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="C861" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D861" s="28" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="E861" s="11"/>
     </row>
     <row r="862" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A862" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500856</v>
       </c>
       <c r="B862" s="28" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="C862" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D862" s="28" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="E862" s="11"/>
     </row>
     <row r="863" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A863" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500857</v>
       </c>
       <c r="B863" s="28" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="C863" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D863" s="28" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="E863" s="11"/>
     </row>
     <row r="864" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A864" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500858</v>
       </c>
       <c r="B864" s="28" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="C864" s="9" t="s">
-        <v>1926</v>
+        <v>1601</v>
       </c>
       <c r="D864" s="28" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="E864" s="11"/>
     </row>
     <row r="865" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A865" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500859</v>
       </c>
       <c r="B865" s="28" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="C865" s="9" t="s">
-        <v>1926</v>
+        <v>1601</v>
       </c>
       <c r="D865" s="28" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E865" s="11"/>
     </row>
     <row r="866" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A866" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500860</v>
       </c>
       <c r="B866" s="28" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="C866" s="9" t="s">
         <v>1926</v>
       </c>
       <c r="D866" s="28" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="E866" s="11"/>
     </row>
     <row r="867" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
       <c r="A867" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500861</v>
       </c>
       <c r="B867" s="28" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="C867" s="9" t="s">
         <v>1926</v>
       </c>
       <c r="D867" s="28" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E867" s="11"/>
+    </row>
+    <row r="868" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
+      <c r="A868" s="38">
+        <f t="shared" si="11"/>
+        <v>500862</v>
+      </c>
+      <c r="B868" s="28" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C868" s="9" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D868" s="28" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E868" s="11"/>
+    </row>
+    <row r="869" spans="1:5" ht="72.5" x14ac:dyDescent="0.4">
+      <c r="A869" s="38">
+        <f t="shared" si="11"/>
+        <v>500863</v>
+      </c>
+      <c r="B869" s="28" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C869" s="9" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D869" s="28" t="s">
         <v>1644</v>
-      </c>
-      <c r="E867" s="11"/>
-    </row>
-    <row r="868" spans="1:5" ht="58" x14ac:dyDescent="0.3">
-      <c r="A868" s="38">
-        <f t="shared" si="13"/>
-        <v>500862</v>
-      </c>
-      <c r="B868" s="11" t="s">
-        <v>1968</v>
-      </c>
-      <c r="C868" s="11" t="s">
-        <v>1969</v>
-      </c>
-      <c r="D868" s="11" t="s">
-        <v>1987</v>
-      </c>
-      <c r="E868" s="11"/>
-    </row>
-    <row r="869" spans="1:5" ht="58" x14ac:dyDescent="0.3">
-      <c r="A869" s="38">
-        <f t="shared" si="13"/>
-        <v>500863</v>
-      </c>
-      <c r="B869" s="11" t="s">
-        <v>1986</v>
-      </c>
-      <c r="C869" s="11" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D869" s="11" t="s">
-        <v>1988</v>
       </c>
       <c r="E869" s="11"/>
     </row>
     <row r="870" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A870" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500864</v>
       </c>
       <c r="B870" s="11" t="s">
-        <v>1927</v>
+        <v>1968</v>
       </c>
       <c r="C870" s="11" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="D870" s="11" t="s">
-        <v>1928</v>
+        <v>1987</v>
       </c>
       <c r="E870" s="11"/>
     </row>
     <row r="871" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A871" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500865</v>
       </c>
       <c r="B871" s="11" t="s">
-        <v>1941</v>
+        <v>1986</v>
       </c>
       <c r="C871" s="11" t="s">
-        <v>1971</v>
+        <v>1989</v>
       </c>
       <c r="D871" s="11" t="s">
-        <v>1942</v>
+        <v>1988</v>
       </c>
       <c r="E871" s="11"/>
     </row>
     <row r="872" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A872" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500866</v>
       </c>
       <c r="B872" s="11" t="s">
-        <v>1976</v>
+        <v>1927</v>
       </c>
       <c r="C872" s="11" t="s">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="D872" s="11" t="s">
-        <v>1978</v>
+        <v>1928</v>
       </c>
       <c r="E872" s="11"/>
     </row>
     <row r="873" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A873" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500867</v>
       </c>
       <c r="B873" s="11" t="s">
-        <v>1651</v>
+        <v>1941</v>
       </c>
       <c r="C873" s="11" t="s">
-        <v>1652</v>
+        <v>1971</v>
       </c>
       <c r="D873" s="11" t="s">
-        <v>1653</v>
+        <v>1942</v>
       </c>
       <c r="E873" s="11"/>
     </row>
     <row r="874" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A874" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500868</v>
       </c>
       <c r="B874" s="11" t="s">
-        <v>1943</v>
+        <v>1976</v>
       </c>
       <c r="C874" s="11" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="D874" s="11" t="s">
-        <v>1944</v>
+        <v>1978</v>
       </c>
       <c r="E874" s="11"/>
     </row>
     <row r="875" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A875" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500869</v>
       </c>
       <c r="B875" s="11" t="s">
-        <v>1970</v>
+        <v>1651</v>
       </c>
       <c r="C875" s="11" t="s">
-        <v>1974</v>
+        <v>1652</v>
       </c>
       <c r="D875" s="11" t="s">
-        <v>1975</v>
+        <v>1653</v>
       </c>
       <c r="E875" s="11"/>
     </row>
     <row r="876" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A876" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500870</v>
       </c>
       <c r="B876" s="11" t="s">
-        <v>1983</v>
+        <v>1943</v>
       </c>
       <c r="C876" s="11" t="s">
-        <v>1984</v>
+        <v>1973</v>
       </c>
       <c r="D876" s="11" t="s">
-        <v>1985</v>
+        <v>1944</v>
       </c>
       <c r="E876" s="11"/>
     </row>
     <row r="877" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A877" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500871</v>
       </c>
       <c r="B877" s="11" t="s">
-        <v>1654</v>
+        <v>1970</v>
       </c>
       <c r="C877" s="11" t="s">
-        <v>1655</v>
+        <v>1974</v>
       </c>
       <c r="D877" s="11" t="s">
-        <v>1929</v>
+        <v>1975</v>
       </c>
       <c r="E877" s="11"/>
     </row>
     <row r="878" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A878" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500872</v>
       </c>
       <c r="B878" s="11" t="s">
-        <v>1656</v>
+        <v>1983</v>
       </c>
       <c r="C878" s="11" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="D878" s="11" t="s">
-        <v>1930</v>
+        <v>1985</v>
       </c>
       <c r="E878" s="11"/>
     </row>
     <row r="879" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A879" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500873</v>
       </c>
       <c r="B879" s="11" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="C879" s="11" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="D879" s="11" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="E879" s="11"/>
     </row>
     <row r="880" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A880" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500874</v>
       </c>
       <c r="B880" s="11" t="s">
-        <v>1932</v>
+        <v>1656</v>
       </c>
       <c r="C880" s="11" t="s">
-        <v>1659</v>
+        <v>1980</v>
       </c>
       <c r="D880" s="11" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="E880" s="11"/>
     </row>
     <row r="881" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A881" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500875</v>
       </c>
       <c r="B881" s="11" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="C881" s="11" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="D881" s="11" t="s">
-        <v>1662</v>
+        <v>1931</v>
       </c>
       <c r="E881" s="11"/>
     </row>
     <row r="882" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A882" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500876</v>
       </c>
       <c r="B882" s="11" t="s">
-        <v>1663</v>
+        <v>1932</v>
       </c>
       <c r="C882" s="11" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="D882" s="11" t="s">
-        <v>1665</v>
+        <v>1933</v>
       </c>
       <c r="E882" s="11"/>
     </row>
     <row r="883" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A883" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500877</v>
       </c>
       <c r="B883" s="11" t="s">
-        <v>1979</v>
+        <v>1660</v>
       </c>
       <c r="C883" s="11" t="s">
-        <v>1981</v>
+        <v>1661</v>
       </c>
       <c r="D883" s="11" t="s">
-        <v>1982</v>
+        <v>1662</v>
       </c>
       <c r="E883" s="11"/>
     </row>
     <row r="884" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A884" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500878</v>
       </c>
       <c r="B884" s="11" t="s">
-        <v>1934</v>
+        <v>1663</v>
       </c>
       <c r="C884" s="11" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D884" s="11" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="E884" s="11"/>
     </row>
     <row r="885" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A885" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500879</v>
       </c>
       <c r="B885" s="11" t="s">
-        <v>1935</v>
+        <v>1979</v>
       </c>
       <c r="C885" s="11" t="s">
-        <v>1668</v>
+        <v>1981</v>
       </c>
       <c r="D885" s="11" t="s">
-        <v>1669</v>
+        <v>1982</v>
       </c>
       <c r="E885" s="11"/>
     </row>
     <row r="886" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A886" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500880</v>
       </c>
       <c r="B886" s="11" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="C886" s="11" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="D886" s="11" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="E886" s="11"/>
     </row>
     <row r="887" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A887" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500881</v>
       </c>
       <c r="B887" s="11" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="C887" s="11" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="D887" s="11" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="E887" s="11"/>
     </row>
     <row r="888" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A888" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500882</v>
       </c>
       <c r="B888" s="11" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="C888" s="11" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="D888" s="11" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="E888" s="11"/>
     </row>
     <row r="889" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A889" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500883</v>
       </c>
       <c r="B889" s="11" t="s">
-        <v>1953</v>
+        <v>1937</v>
       </c>
       <c r="C889" s="11" t="s">
-        <v>1939</v>
+        <v>1672</v>
       </c>
       <c r="D889" s="11" t="s">
-        <v>1940</v>
-      </c>
+        <v>1673</v>
+      </c>
+      <c r="E889" s="11"/>
     </row>
     <row r="890" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A890" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500884</v>
       </c>
       <c r="B890" s="11" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C890" s="11" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D890" s="11" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E890" s="11"/>
+    </row>
+    <row r="891" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A891" s="38">
+        <f t="shared" si="11"/>
+        <v>500885</v>
+      </c>
+      <c r="B891" s="11" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C891" s="11" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D891" s="11" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A892" s="38">
+        <f t="shared" si="11"/>
+        <v>500886</v>
+      </c>
+      <c r="B892" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="C890" s="11" t="s">
+      <c r="C892" s="11" t="s">
         <v>1677</v>
       </c>
-      <c r="D890" s="11" t="s">
+      <c r="D892" s="11" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="891" spans="1:5" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A891" s="38">
-        <f t="shared" si="13"/>
-        <v>500885</v>
-      </c>
-      <c r="B891" s="6" t="s">
+    <row r="893" spans="1:5" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A893" s="38">
+        <f t="shared" si="11"/>
+        <v>500887</v>
+      </c>
+      <c r="B893" s="6" t="s">
         <v>1686</v>
       </c>
-      <c r="C891" s="4" t="s">
+      <c r="C893" s="4" t="s">
         <v>1684</v>
       </c>
-      <c r="D891" s="4" t="s">
+      <c r="D893" s="4" t="s">
         <v>1688</v>
       </c>
-      <c r="E891" s="16"/>
-    </row>
-    <row r="892" spans="1:5" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A892" s="38">
-        <f t="shared" si="13"/>
-        <v>500886</v>
-      </c>
-      <c r="B892" s="6" t="s">
+      <c r="E893" s="16"/>
+    </row>
+    <row r="894" spans="1:5" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A894" s="38">
+        <f t="shared" si="11"/>
+        <v>500888</v>
+      </c>
+      <c r="B894" s="6" t="s">
         <v>1687</v>
       </c>
-      <c r="C892" s="4" t="s">
+      <c r="C894" s="4" t="s">
         <v>1684</v>
       </c>
-      <c r="D892" s="4" t="s">
+      <c r="D894" s="4" t="s">
         <v>1689</v>
       </c>
-      <c r="E892" s="16"/>
-    </row>
-    <row r="893" spans="1:5" ht="58" x14ac:dyDescent="0.3">
-      <c r="A893" s="38">
-        <f t="shared" si="13"/>
-        <v>500887</v>
-      </c>
-      <c r="B893" s="16" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C893" s="16" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D893" s="42" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E893" s="16"/>
-    </row>
-    <row r="894" spans="1:5" ht="58" x14ac:dyDescent="0.3">
-      <c r="A894" s="38">
-        <f t="shared" si="13"/>
-        <v>500888</v>
-      </c>
-      <c r="B894" s="16" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C894" s="16" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D894" s="42" t="s">
-        <v>1700</v>
-      </c>
+      <c r="E894" s="16"/>
     </row>
     <row r="895" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A895" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500889</v>
       </c>
       <c r="B895" s="16" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C895" s="16" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="D895" s="42" t="s">
-        <v>1701</v>
-      </c>
+        <v>1699</v>
+      </c>
+      <c r="E895" s="16"/>
     </row>
     <row r="896" spans="1:5" ht="58" x14ac:dyDescent="0.3">
       <c r="A896" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500890</v>
       </c>
       <c r="B896" s="16" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C896" s="16" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D896" s="42" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="897" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A897" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500891</v>
       </c>
-      <c r="B897" s="6" t="s">
-        <v>1838</v>
+      <c r="B897" s="16" t="s">
+        <v>1709</v>
       </c>
       <c r="C897" s="16" t="s">
-        <v>1839</v>
-      </c>
-      <c r="D897" s="4" t="s">
-        <v>2148</v>
+        <v>1705</v>
+      </c>
+      <c r="D897" s="42" t="s">
+        <v>1701</v>
       </c>
     </row>
     <row r="898" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A898" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500892</v>
       </c>
-      <c r="B898" s="6" t="s">
-        <v>1840</v>
+      <c r="B898" s="16" t="s">
+        <v>1710</v>
       </c>
       <c r="C898" s="16" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D898" s="4" t="s">
-        <v>1952</v>
+        <v>1706</v>
+      </c>
+      <c r="D898" s="42" t="s">
+        <v>1702</v>
       </c>
     </row>
     <row r="899" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A899" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500893</v>
       </c>
       <c r="B899" s="6" t="s">
-        <v>1843</v>
+        <v>1838</v>
       </c>
       <c r="C899" s="16" t="s">
-        <v>1844</v>
+        <v>1839</v>
       </c>
       <c r="D899" s="4" t="s">
-        <v>1948</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="900" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A900" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500894</v>
       </c>
       <c r="B900" s="6" t="s">
-        <v>1849</v>
+        <v>1840</v>
       </c>
       <c r="C900" s="16" t="s">
-        <v>1861</v>
+        <v>1841</v>
       </c>
       <c r="D900" s="4" t="s">
-        <v>796</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="901" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A901" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500895</v>
       </c>
       <c r="B901" s="6" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
       <c r="C901" s="16" t="s">
-        <v>1862</v>
+        <v>1844</v>
       </c>
       <c r="D901" s="4" t="s">
-        <v>1845</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="902" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A902" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500896</v>
       </c>
       <c r="B902" s="6" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="C902" s="16" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="D902" s="4" t="s">
-        <v>1846</v>
+        <v>796</v>
       </c>
     </row>
     <row r="903" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A903" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500897</v>
       </c>
       <c r="B903" s="6" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="C903" s="16" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="D903" s="4" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="904" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A904" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500898</v>
       </c>
       <c r="B904" s="6" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="C904" s="16" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="D904" s="4" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="905" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A905" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500899</v>
       </c>
       <c r="B905" s="6" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="C905" s="16" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="D905" s="4" t="s">
-        <v>1110</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="906" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A906" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500900</v>
       </c>
       <c r="B906" s="6" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="C906" s="16" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="D906" s="4" t="s">
-        <v>1111</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="907" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A907" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500901</v>
       </c>
       <c r="B907" s="6" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C907" s="16" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="D907" s="4" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="908" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A908" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500902</v>
       </c>
       <c r="B908" s="6" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="C908" s="16" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="D908" s="4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="909" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A909" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>500903</v>
       </c>
       <c r="B909" s="6" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="C909" s="16" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="D909" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="910" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A910" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A910:A965" si="12">ROW()+$C$5-6</f>
         <v>500904</v>
       </c>
       <c r="B910" s="6" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C910" s="16" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D910" s="4" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" ht="58" x14ac:dyDescent="0.3">
+      <c r="A911" s="38">
+        <f t="shared" si="12"/>
+        <v>500905</v>
+      </c>
+      <c r="B911" s="6" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C911" s="16" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D911" s="4" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" ht="58" x14ac:dyDescent="0.3">
+      <c r="A912" s="38">
+        <f t="shared" si="12"/>
+        <v>500906</v>
+      </c>
+      <c r="B912" s="6" t="s">
         <v>1859</v>
       </c>
-      <c r="C910" s="16" t="s">
+      <c r="C912" s="16" t="s">
         <v>1871</v>
       </c>
-      <c r="D910" s="4" t="s">
+      <c r="D912" s="4" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="911" spans="1:4" ht="58" x14ac:dyDescent="0.3">
-      <c r="A911" s="81">
-        <f t="shared" si="13"/>
-        <v>500905</v>
-      </c>
-      <c r="B911" s="6" t="s">
+    <row r="913" spans="1:4" ht="58" x14ac:dyDescent="0.3">
+      <c r="A913" s="38">
+        <f t="shared" si="12"/>
+        <v>500907</v>
+      </c>
+      <c r="B913" s="6" t="s">
         <v>1860</v>
       </c>
-      <c r="C911" s="82" t="s">
+      <c r="C913" s="80" t="s">
         <v>1872</v>
       </c>
-      <c r="D911" s="4" t="s">
+      <c r="D913" s="4" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="912" spans="1:4" ht="58" x14ac:dyDescent="0.3">
-      <c r="A912" s="79">
-        <f t="shared" si="13"/>
-        <v>500906</v>
-      </c>
-      <c r="B912" s="85" t="s">
+    <row r="914" spans="1:4" ht="58" x14ac:dyDescent="0.3">
+      <c r="A914" s="38">
+        <f t="shared" si="12"/>
+        <v>500908</v>
+      </c>
+      <c r="B914" s="82" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C914" s="79" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D914" s="83" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" ht="58" x14ac:dyDescent="0.3">
+      <c r="A915" s="38">
+        <f t="shared" si="12"/>
+        <v>500909</v>
+      </c>
+      <c r="B915" s="82" t="s">
         <v>2099</v>
       </c>
-      <c r="C912" s="80" t="s">
+      <c r="C915" s="79" t="s">
         <v>1945</v>
       </c>
-      <c r="D912" s="86" t="s">
+      <c r="D915" s="83" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A916" s="38">
+        <f t="shared" si="12"/>
+        <v>500910</v>
+      </c>
+      <c r="B916" s="82" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C916" s="79"/>
+      <c r="D916" s="83" t="s">
         <v>2102</v>
       </c>
     </row>
-    <row r="913" spans="1:4" ht="58" x14ac:dyDescent="0.3">
-      <c r="A913" s="79">
-        <f t="shared" si="13"/>
-        <v>500907</v>
-      </c>
-      <c r="B913" s="85" t="s">
-        <v>2100</v>
-      </c>
-      <c r="C913" s="80" t="s">
+    <row r="917" spans="1:4" ht="58" x14ac:dyDescent="0.3">
+      <c r="A917" s="38">
+        <f t="shared" si="12"/>
+        <v>500911</v>
+      </c>
+      <c r="B917" s="82" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C917" s="79" t="s">
         <v>1945</v>
       </c>
-      <c r="D913" s="86" t="s">
+      <c r="D917" s="83" t="s">
         <v>2105</v>
-      </c>
-    </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A914" s="79">
-        <f t="shared" si="13"/>
-        <v>500908</v>
-      </c>
-      <c r="B914" s="85" t="s">
-        <v>2101</v>
-      </c>
-      <c r="C914" s="80"/>
-      <c r="D914" s="86" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="915" spans="1:4" ht="58" x14ac:dyDescent="0.3">
-      <c r="A915" s="79">
-        <f t="shared" si="13"/>
-        <v>500909</v>
-      </c>
-      <c r="B915" s="85" t="s">
-        <v>2104</v>
-      </c>
-      <c r="C915" s="80" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D915" s="86" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="916" spans="1:4" ht="58" x14ac:dyDescent="0.3">
-      <c r="A916" s="79">
-        <f t="shared" ref="A916:A918" si="14">ROW()+$C$5-6</f>
-        <v>500910</v>
-      </c>
-      <c r="B916" s="85" t="s">
-        <v>2098</v>
-      </c>
-      <c r="C916" s="80" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D916" s="86" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="917" spans="1:4" ht="58" x14ac:dyDescent="0.3">
-      <c r="A917" s="83">
-        <f t="shared" si="14"/>
-        <v>500911</v>
-      </c>
-      <c r="B917" s="6" t="s">
-        <v>1949</v>
-      </c>
-      <c r="C917" s="84" t="s">
-        <v>1950</v>
-      </c>
-      <c r="D917" s="4" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="918" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A918" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>500912</v>
       </c>
-      <c r="B918" s="11" t="s">
-        <v>1958</v>
-      </c>
-      <c r="C918" s="16" t="s">
-        <v>1957</v>
-      </c>
-      <c r="D918" s="4" t="s">
-        <v>1954</v>
+      <c r="B918" s="82" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C918" s="79" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D918" s="83" t="s">
+        <v>1946</v>
       </c>
     </row>
     <row r="919" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A919" s="38">
-        <f>ROW()+$C$5-6</f>
+        <f t="shared" si="12"/>
         <v>500913</v>
       </c>
-      <c r="B919" s="11" t="s">
-        <v>1959</v>
-      </c>
-      <c r="C919" s="16" t="s">
-        <v>1956</v>
+      <c r="B919" s="6" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C919" s="81" t="s">
+        <v>1950</v>
       </c>
       <c r="D919" s="4" t="s">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="920" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A920" s="38">
-        <f>ROW()+$C$5-6</f>
+        <f t="shared" si="12"/>
         <v>500914</v>
       </c>
-      <c r="B920" s="78" t="s">
-        <v>1960</v>
+      <c r="B920" s="11" t="s">
+        <v>1958</v>
       </c>
       <c r="C920" s="16" t="s">
-        <v>1844</v>
+        <v>1957</v>
       </c>
       <c r="D920" s="4" t="s">
-        <v>1963</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="921" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A921" s="38">
-        <f>ROW()+$C$5-6</f>
+        <f t="shared" si="12"/>
         <v>500915</v>
       </c>
-      <c r="B921" s="78" t="s">
-        <v>1967</v>
+      <c r="B921" s="11" t="s">
+        <v>1959</v>
       </c>
       <c r="C921" s="16" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="D921" s="4" t="s">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="922" spans="1:4" ht="58" x14ac:dyDescent="0.3">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="38">
-        <f>ROW()+$C$5-6</f>
+        <f t="shared" si="12"/>
         <v>500916</v>
       </c>
       <c r="B922" s="78" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="C922" s="16" t="s">
-        <v>1965</v>
+        <v>1844</v>
       </c>
       <c r="D922" s="4" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="923" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A923" s="38">
-        <f t="shared" ref="A923:A924" si="15">ROW()+$C$5-6</f>
+        <f t="shared" si="12"/>
         <v>500917</v>
       </c>
       <c r="B923" s="78" t="s">
-        <v>1997</v>
+        <v>1967</v>
       </c>
       <c r="C923" s="16" t="s">
-        <v>1991</v>
+        <v>1961</v>
       </c>
       <c r="D923" s="4" t="s">
-        <v>1994</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="924" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A924" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>500918</v>
       </c>
       <c r="B924" s="78" t="s">
-        <v>2000</v>
+        <v>1964</v>
       </c>
       <c r="C924" s="16" t="s">
-        <v>1990</v>
+        <v>1965</v>
       </c>
       <c r="D924" s="4" t="s">
-        <v>2149</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="925" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A925" s="38">
-        <f t="shared" ref="A925:A951" si="16">ROW()+$C$5-6</f>
+        <f t="shared" si="12"/>
         <v>500919</v>
       </c>
       <c r="B925" s="78" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="C925" s="16" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D925" s="4" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="926" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A926" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500920</v>
       </c>
       <c r="B926" s="78" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C926" s="16" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="D926" s="4" t="s">
-        <v>1996</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="927" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A927" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500921</v>
       </c>
       <c r="B927" s="78" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C927" s="16" t="s">
-        <v>2018</v>
+        <v>1992</v>
       </c>
       <c r="D927" s="4" t="s">
-        <v>2017</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="928" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A928" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500922</v>
       </c>
       <c r="B928" s="78" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C928" s="16" t="s">
-        <v>2009</v>
+        <v>1993</v>
       </c>
       <c r="D928" s="4" t="s">
-        <v>2010</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="929" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A929" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500923</v>
       </c>
       <c r="B929" s="78" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C929" s="16" t="s">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="D929" s="4" t="s">
-        <v>2057</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="930" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A930" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500924</v>
       </c>
       <c r="B930" s="78" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C930" s="16" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D930" s="4" t="s">
-        <v>2019</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="931" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A931" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500925</v>
       </c>
       <c r="B931" s="78" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C931" s="16" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D931" s="4" t="s">
-        <v>2020</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="932" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A932" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500926</v>
       </c>
       <c r="B932" s="78" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C932" s="16" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D932" s="4" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="933" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A933" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500927</v>
       </c>
       <c r="B933" s="78" t="s">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="C933" s="16" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D933" s="4" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="934" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A934" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500928</v>
       </c>
       <c r="B934" s="78" t="s">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="C934" s="16" t="s">
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="D934" s="4" t="s">
-        <v>2138</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="935" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A935" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500929</v>
       </c>
       <c r="B935" s="78" t="s">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="C935" s="16" t="s">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="D935" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="936" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A936" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500930</v>
       </c>
       <c r="B936" s="78" t="s">
-        <v>2026</v>
+        <v>1998</v>
       </c>
       <c r="C936" s="16" t="s">
-        <v>2027</v>
+        <v>1999</v>
       </c>
       <c r="D936" s="4" t="s">
-        <v>2155</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="937" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A937" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500931</v>
       </c>
       <c r="B937" s="78" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="C937" s="16" t="s">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="D937" s="4" t="s">
-        <v>2107</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="938" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A938" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500932</v>
       </c>
       <c r="B938" s="78" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="C938" s="16" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="D938" s="4" t="s">
-        <v>2032</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="939" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A939" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500933</v>
       </c>
       <c r="B939" s="78" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="C939" s="16" t="s">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="D939" s="4" t="s">
-        <v>2132</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="940" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A940" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500934</v>
       </c>
-      <c r="B940" s="6" t="s">
-        <v>2035</v>
+      <c r="B940" s="78" t="s">
+        <v>2030</v>
       </c>
       <c r="C940" s="16" t="s">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="D940" s="4" t="s">
-        <v>2133</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="941" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A941" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500935</v>
       </c>
-      <c r="B941" s="6" t="s">
-        <v>2037</v>
+      <c r="B941" s="78" t="s">
+        <v>2033</v>
       </c>
       <c r="C941" s="16" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="D941" s="4" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="942" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A942" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500936</v>
       </c>
       <c r="B942" s="6" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="C942" s="16" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="D942" s="4" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="943" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A943" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500937</v>
       </c>
       <c r="B943" s="6" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="C943" s="16" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="D943" s="4" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="944" spans="1:4" ht="58" x14ac:dyDescent="0.3">
       <c r="A944" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>500938</v>
       </c>
       <c r="B944" s="6" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C944" s="16" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D944" s="4" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A945" s="38">
+        <f t="shared" si="12"/>
+        <v>500939</v>
+      </c>
+      <c r="B945" s="6" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C945" s="16" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D945" s="4" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A946" s="38">
+        <f t="shared" si="12"/>
+        <v>500940</v>
+      </c>
+      <c r="B946" s="6" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C946" s="16" t="s">
         <v>2043</v>
       </c>
-      <c r="C944" s="16" t="s">
+      <c r="D946" s="4" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A947" s="38">
+        <f t="shared" si="12"/>
+        <v>500941</v>
+      </c>
+      <c r="B947" s="78" t="s">
         <v>2044</v>
       </c>
-      <c r="D944" s="4" t="s">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="945" spans="1:4" ht="58" x14ac:dyDescent="0.3">
-      <c r="A945" s="38">
-        <f>ROW()+$C$5-6</f>
-        <v>500939</v>
-      </c>
-      <c r="B945" s="78" t="s">
+      <c r="C947" s="16" t="s">
         <v>2045</v>
       </c>
-      <c r="C945" s="16" t="s">
+      <c r="D947" s="4" t="s">
         <v>2046</v>
       </c>
-      <c r="D945" s="4" t="s">
+    </row>
+    <row r="948" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A948" s="38">
+        <f t="shared" si="12"/>
+        <v>500942</v>
+      </c>
+      <c r="B948" s="78" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="946" spans="1:4" ht="58" x14ac:dyDescent="0.3">
-      <c r="A946" s="38">
-        <f t="shared" si="16"/>
-        <v>500940</v>
-      </c>
-      <c r="B946" s="78" t="s">
+      <c r="C948" s="16" t="s">
         <v>2048</v>
       </c>
-      <c r="C946" s="16" t="s">
+      <c r="D948" s="4" t="s">
         <v>2049</v>
       </c>
-      <c r="D946" s="4" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="947" spans="1:4" ht="58" x14ac:dyDescent="0.3">
-      <c r="A947" s="38">
-        <f t="shared" si="16"/>
-        <v>500941</v>
-      </c>
-      <c r="B947" s="78" t="s">
+    </row>
+    <row r="949" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A949" s="38">
+        <f t="shared" si="12"/>
+        <v>500943</v>
+      </c>
+      <c r="B949" s="78" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C949" s="16" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D949" s="4" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A950" s="38">
+        <f t="shared" si="12"/>
+        <v>500944</v>
+      </c>
+      <c r="B950" s="78" t="s">
         <v>2058</v>
       </c>
-      <c r="C947" s="16" t="s">
+      <c r="C950" s="16" t="s">
         <v>2060</v>
       </c>
-      <c r="D947" s="4" t="s">
+      <c r="D950" s="4" t="s">
         <v>2062</v>
       </c>
     </row>
-    <row r="948" spans="1:4" ht="58" x14ac:dyDescent="0.3">
-      <c r="A948" s="38">
-        <f t="shared" si="16"/>
-        <v>500942</v>
-      </c>
-      <c r="B948" s="78" t="s">
-        <v>2059</v>
-      </c>
-      <c r="C948" s="16" t="s">
-        <v>2061</v>
-      </c>
-      <c r="D948" s="4" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="949" spans="1:4" ht="58" x14ac:dyDescent="0.3">
-      <c r="A949" s="38">
-        <f t="shared" si="16"/>
-        <v>500943</v>
-      </c>
-      <c r="B949" s="78" t="s">
+    <row r="951" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A951" s="38">
+        <f t="shared" si="12"/>
+        <v>500945</v>
+      </c>
+      <c r="B951" s="78" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C951" s="16" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D951" s="4" t="s">
         <v>2116</v>
       </c>
-      <c r="C949" s="16" t="s">
-        <v>2118</v>
-      </c>
-      <c r="D949" s="4" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A950" s="38">
-        <f t="shared" si="16"/>
-        <v>500944</v>
-      </c>
-      <c r="B950" s="6" t="s">
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A952" s="38">
+        <f t="shared" si="12"/>
+        <v>500946</v>
+      </c>
+      <c r="B952" s="6" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C952" s="6" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D952" s="4" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A953" s="38">
+        <f t="shared" si="12"/>
+        <v>500947</v>
+      </c>
+      <c r="B953" s="6" t="s">
         <v>2151</v>
       </c>
-      <c r="C950" s="6" t="s">
-        <v>2150</v>
-      </c>
-      <c r="D950" s="4" t="s">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="951" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A951" s="38">
-        <f t="shared" si="16"/>
-        <v>500945</v>
-      </c>
-      <c r="B951" s="6" t="s">
+      <c r="C953" s="6" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D953" s="4" t="s">
         <v>2152</v>
       </c>
-      <c r="C951" s="6" t="s">
-        <v>2150</v>
-      </c>
-      <c r="D951" s="4" t="s">
-        <v>2153</v>
+    </row>
+    <row r="954" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A954" s="38">
+        <f t="shared" si="12"/>
+        <v>500948</v>
+      </c>
+      <c r="B954" s="78" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C954" s="16" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D954" s="4" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A955" s="38">
+        <f t="shared" si="12"/>
+        <v>500949</v>
+      </c>
+      <c r="B955" s="78" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C955" s="16" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D955" s="4" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A956" s="38">
+        <f t="shared" si="12"/>
+        <v>500950</v>
+      </c>
+      <c r="B956" s="78" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C956" s="16" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D956" s="4" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A957" s="38">
+        <f t="shared" si="12"/>
+        <v>500951</v>
+      </c>
+      <c r="B957" s="78" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C957" s="16" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D957" s="4" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A958" s="38">
+        <f t="shared" si="12"/>
+        <v>500952</v>
+      </c>
+      <c r="B958" s="16" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C958" s="16" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D958" s="42" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E958" s="16"/>
+    </row>
+    <row r="959" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A959" s="38">
+        <f t="shared" si="12"/>
+        <v>500953</v>
+      </c>
+      <c r="B959" s="16" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C959" s="16" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D959" s="42" t="s">
+        <v>2182</v>
+      </c>
+      <c r="E959" s="16"/>
+    </row>
+    <row r="960" spans="1:5" ht="58" x14ac:dyDescent="0.3">
+      <c r="A960" s="38">
+        <f t="shared" si="12"/>
+        <v>500954</v>
+      </c>
+      <c r="B960" s="16" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C960" s="16" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D960" s="42" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" ht="58" x14ac:dyDescent="0.3">
+      <c r="A961" s="38">
+        <f t="shared" si="12"/>
+        <v>500955</v>
+      </c>
+      <c r="B961" s="16" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C961" s="16" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D961" s="42" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" ht="58" x14ac:dyDescent="0.3">
+      <c r="A962" s="38">
+        <f t="shared" si="12"/>
+        <v>500956</v>
+      </c>
+      <c r="B962" s="16" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C962" s="16" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D962" s="42" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" ht="58" x14ac:dyDescent="0.3">
+      <c r="A963" s="38">
+        <f t="shared" si="12"/>
+        <v>500957</v>
+      </c>
+      <c r="B963" s="16" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C963" s="16" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D963" s="42" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" ht="58" x14ac:dyDescent="0.3">
+      <c r="A964" s="38">
+        <f t="shared" si="12"/>
+        <v>500958</v>
+      </c>
+      <c r="B964" s="16" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C964" s="16" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D964" s="42" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" ht="58" x14ac:dyDescent="0.3">
+      <c r="A965" s="38">
+        <f t="shared" si="12"/>
+        <v>500959</v>
+      </c>
+      <c r="B965" s="16" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C965" s="16" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D965" s="42" t="s">
+        <v>2181</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A6:E464" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A6">
-    <cfRule type="duplicateValues" dxfId="104" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B6">
-    <cfRule type="duplicateValues" dxfId="103" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="100" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="198"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B218:B234">
-    <cfRule type="duplicateValues" dxfId="97" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B329:B346">
-    <cfRule type="duplicateValues" dxfId="94" priority="371"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="372"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="375"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B360:B362">
-    <cfRule type="duplicateValues" dxfId="91" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="189"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B390 B388 B386 B384 B392 B394:B406 B408 B410:B418">
-    <cfRule type="duplicateValues" dxfId="88" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B391">
-    <cfRule type="duplicateValues" dxfId="87" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B407">
-    <cfRule type="duplicateValues" dxfId="86" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B409 B389 B387 B385 B383 B393">
-    <cfRule type="duplicateValues" dxfId="85" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B419 B431:B432">
-    <cfRule type="duplicateValues" dxfId="84" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="165"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B449:B450">
-    <cfRule type="duplicateValues" dxfId="81" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B480">
-    <cfRule type="duplicateValues" dxfId="78" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B482">
-    <cfRule type="duplicateValues" dxfId="77" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B484:B485">
-    <cfRule type="duplicateValues" dxfId="76" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B486">
-    <cfRule type="duplicateValues" dxfId="75" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B487">
-    <cfRule type="duplicateValues" dxfId="72" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B488">
-    <cfRule type="duplicateValues" dxfId="69" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B489:B490">
-    <cfRule type="duplicateValues" dxfId="66" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B491">
-    <cfRule type="duplicateValues" dxfId="65" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B492">
-    <cfRule type="duplicateValues" dxfId="64" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B493">
-    <cfRule type="duplicateValues" dxfId="59" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B494:B496">
-    <cfRule type="duplicateValues" dxfId="58" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D465">
-    <cfRule type="duplicateValues" dxfId="57" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="362"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D466:D474">
-    <cfRule type="duplicateValues" dxfId="56" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D475:D476">
-    <cfRule type="duplicateValues" dxfId="55" priority="366"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D478">
-    <cfRule type="duplicateValues" dxfId="54" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D479">
-    <cfRule type="duplicateValues" dxfId="53" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A285:A320">
-    <cfRule type="duplicateValues" dxfId="52" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B73">
-    <cfRule type="duplicateValues" dxfId="51" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B73">
-    <cfRule type="duplicateValues" dxfId="50" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B217">
-    <cfRule type="duplicateValues" dxfId="47" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B217">
-    <cfRule type="duplicateValues" dxfId="46" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B235:B284">
-    <cfRule type="duplicateValues" dxfId="43" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B235:B284">
-    <cfRule type="duplicateValues" dxfId="42" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B285:B320">
-    <cfRule type="duplicateValues" dxfId="39" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B285:B320">
-    <cfRule type="duplicateValues" dxfId="36" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B218:B234 B321:B346">
-    <cfRule type="duplicateValues" dxfId="35" priority="378"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B321:B328">
-    <cfRule type="duplicateValues" dxfId="34" priority="380"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="382"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B715:B763">
-    <cfRule type="duplicateValues" dxfId="33" priority="30"/>
+  <conditionalFormatting sqref="B717:B765">
+    <cfRule type="duplicateValues" dxfId="35" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B715:B763">
-    <cfRule type="duplicateValues" dxfId="32" priority="32"/>
+  <conditionalFormatting sqref="B717:B765">
+    <cfRule type="duplicateValues" dxfId="34" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B715:B763">
-    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
+  <conditionalFormatting sqref="B717:B765">
+    <cfRule type="duplicateValues" dxfId="33" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B773:B778">
+  <conditionalFormatting sqref="B775:B780">
+    <cfRule type="duplicateValues" dxfId="32" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B775:B785">
+    <cfRule type="duplicateValues" dxfId="31" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B786">
     <cfRule type="duplicateValues" dxfId="30" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B773:B783">
-    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
+  <conditionalFormatting sqref="B787:B801">
+    <cfRule type="duplicateValues" dxfId="29" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B784">
-    <cfRule type="duplicateValues" dxfId="28" priority="23"/>
+  <conditionalFormatting sqref="B766:B774">
+    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B785:B799">
-    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
+  <conditionalFormatting sqref="B766:B774">
+    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B764:B772">
-    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
+  <conditionalFormatting sqref="B766:B774">
+    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B764:B772">
-    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
+  <conditionalFormatting sqref="B820:B824">
+    <cfRule type="duplicateValues" dxfId="25" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B764:B772">
-    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
+  <conditionalFormatting sqref="B825:B847">
+    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B818:B822">
-    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
+  <conditionalFormatting sqref="B825:B847">
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B823:B845">
-    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
+  <conditionalFormatting sqref="B825:B847">
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B823:B845">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B823:B845">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B846:B867">
-    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+  <conditionalFormatting sqref="B848:B869">
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A625:A634">
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A873 A7:A284 A321:A624 A635:A674 A890:A896 A877:A888 A678:A867">
-    <cfRule type="duplicateValues" dxfId="17" priority="400"/>
+  <conditionalFormatting sqref="A7:A284 A321:A624 A635:A674 A678:A679 A681:A682 A684:A685 A687:A688 A690:A691 A693:A694 A696:A697 A699:A700 A702:A703 A705:A706 A708:A709 A711:A712 A714:A715 A717:A718 A720:A721 A723:A724 A726:A727 A729:A730 A732:A733 A735:A736 A738:A739 A741:A742 A744:A745 A747:A748 A750:A751 A753:A754 A756:A757 A759:A760 A762:A763 A765:A766 A768:A769 A771:A772 A774:A775 A777:A778 A780:A781 A783:A784 A786:A787 A789:A790 A792:A793 A795:A796 A798:A799 A801:A802 A804:A805 A807:A808 A810:A811 A813:A814 A816:A817 A819:A820 A822:A823 A825:A826 A828:A829 A831:A832 A834:A835 A837:A838 A840:A841 A843:A844 A846:A847 A849:A850 A852:A853 A855:A856 A858:A859 A861:A862 A864:A865 A867:A868 A870:A871 A873:A874 A876:A877 A879:A880 A882:A883 A885:A886 A888:A889 A891:A892 A894:A895 A897:A898 A900:A901 A903:A904 A906:A907 A909:A910 A912:A913 A915:A916 A918:A919 A921:A922 A924:A925 A927:A928 A930:A931 A933:A934 A936:A937 A939:A940 A942:A943 A945:A946 A948:A949 A951:A952 A954:A955 A957:A958 A960:A961 A963:A964">
+    <cfRule type="duplicateValues" dxfId="19" priority="402"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B429:B430">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B420:B428">
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B420:B428">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B420:B428">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A870">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A889">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A871:A872">
+  <conditionalFormatting sqref="B952:B953 B1:B674 B872:B937 B958:B1048576 B678:B869">
     <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A874:A876">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+  <conditionalFormatting sqref="B938:B951">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B950:B1048576 B1:B674 B678:B867 B870:B935">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A868:A869">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A897:A951">
-    <cfRule type="duplicateValues" dxfId="6" priority="406"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B936:B949">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A675:A677">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  <conditionalFormatting sqref="A675:A677 A680 A683 A686 A689 A692 A695 A698 A701 A704 A707 A710 A713 A716 A719 A722 A725 A728 A731 A734 A737 A740 A743 A746 A749 A752 A755 A758 A761 A764 A767 A770 A773 A776 A779 A782 A785 A788 A791 A794 A797 A800 A803 A806 A809 A812 A815 A818 A821 A824 A827 A830 A833 A836 A839 A842 A845 A848 A851 A854 A857 A860 A863 A866 A869 A872 A875 A878 A881 A884 A887 A890 A893 A896 A899 A902 A905 A908 A911 A914 A917 A920 A923 A926 A929 A932 A935 A938 A941 A944 A947 A950 A953 A956 A959 A962 A965">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B675:B677">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B363:B364">
-    <cfRule type="duplicateValues" dxfId="2" priority="407"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="408"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="410"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="411"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B954:B957">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
